--- a/Camico_CXP_Scenario/Camico_CXP_Scenario/Config.xlsx
+++ b/Camico_CXP_Scenario/Camico_CXP_Scenario/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,10 @@
     <sheet name="Touchpoints" sheetId="17" r:id="rId10"/>
     <sheet name="Cyber Coverage Clms Data_PL" sheetId="18" r:id="rId11"/>
     <sheet name="LCC Coverage Clms Data_PL" sheetId="19" r:id="rId12"/>
-    <sheet name="Sheet1" sheetId="16" r:id="rId13"/>
+    <sheet name="LCC Coverage Clms Data_BAM_PL" sheetId="20" r:id="rId13"/>
+    <sheet name="MCF Coverage Clms Data_PL" sheetId="21" r:id="rId14"/>
+    <sheet name="MCF Coverage Clms Data_BAM_PL" sheetId="22" r:id="rId15"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="181">
   <si>
     <t>Key</t>
   </si>
@@ -1144,7 +1147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -1233,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,7 +1365,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,6 +1486,240 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="11" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T26"/>
   <sheetViews>
@@ -3480,7 +3717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>

--- a/Camico_CXP_Scenario/Camico_CXP_Scenario/Config.xlsx
+++ b/Camico_CXP_Scenario/Camico_CXP_Scenario/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="9"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="12" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="181">
   <si>
     <t>Key</t>
   </si>
@@ -1147,7 +1147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -1365,7 +1365,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,10 +1565,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1636,6 +1636,53 @@
       </c>
       <c r="O1" s="27" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4">
+        <v>45026</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" t="s">
+        <v>166</v>
+      </c>
+      <c r="O2" s="7">
+        <v>45023</v>
       </c>
     </row>
   </sheetData>
